--- a/SEM in R/Tables (1).xlsx
+++ b/SEM in R/Tables (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{9A2FED55-F17F-44F6-A68D-244CB7E56585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC132A7E-4D90-46E0-8067-B5FE9782EABC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics" sheetId="1" r:id="rId1"/>
@@ -997,19 +997,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="31" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="3" max="31" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="33" t="s">
@@ -1064,7 +1064,7 @@
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>34</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>65.790000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13" s="28" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>62.28</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>37</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="28" t="s">
         <v>40</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>84.21</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>37</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="28" t="s">
         <v>37</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="28" t="s">
         <v>37</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>7.89</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="28" t="s">
         <v>37</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="28" t="s">
         <v>37</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1.89E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
         <v>37</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28" t="s">
         <v>37</v>
       </c>
@@ -3269,963 +3269,963 @@
         <v>8.77</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="V2:W2"/>
@@ -4249,24 +4249,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F6A782-2A3B-445C-8D45-61A93BF640F6}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="9" style="23" customWidth="1"/>
     <col min="4" max="24" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="33" t="s">
         <v>0</v>
@@ -4319,7 +4319,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>67</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>68</v>
       </c>
@@ -4506,7 +4506,7 @@
       <c r="X5" s="26"/>
       <c r="Y5" s="26"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>69</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>70</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>81</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>71</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>72</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="X10" s="26"/>
       <c r="Y10" s="26"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>74</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>79</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>80</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>75</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>82</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0.31730000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>76</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>9.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>77</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>1.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>78</v>
       </c>
@@ -5536,46 +5536,46 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5590,21 +5590,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" customWidth="1"/>
     <col min="3" max="3" width="11" style="11" customWidth="1"/>
-    <col min="4" max="8" width="7.625" style="11" customWidth="1"/>
-    <col min="9" max="30" width="7.625" customWidth="1"/>
+    <col min="4" max="8" width="7.59765625" style="11" customWidth="1"/>
+    <col min="9" max="30" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5721,14 +5721,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="14"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>46</v>
       </c>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>47</v>
       </c>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>48</v>
       </c>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>58</v>
       </c>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -5956,7 +5956,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>52</v>
       </c>
@@ -5980,13 +5980,13 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>46</v>
       </c>
@@ -6022,7 +6022,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>55</v>
       </c>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>57</v>
       </c>
@@ -6058,7 +6058,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>47</v>
       </c>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -6106,7 +6106,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>51</v>
       </c>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
@@ -6154,13 +6154,13 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
@@ -6184,7 +6184,7 @@
       </c>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>45</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>57</v>
       </c>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>64</v>
       </c>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>47</v>
       </c>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>48</v>
       </c>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>18</v>
       </c>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>58</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>49</v>
       </c>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>50</v>
       </c>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>52</v>
       </c>
@@ -6555,959 +6555,959 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="U2:V2"/>
@@ -7531,38 +7531,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E5615E-1D0D-450A-80B5-357F9A4D0919}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="6.09765625" style="22" customWidth="1"/>
     <col min="3" max="3" width="11" style="11" customWidth="1"/>
     <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="7.625" style="22" customWidth="1"/>
-    <col min="18" max="18" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="7.625" style="22" customWidth="1"/>
-    <col min="22" max="22" width="8.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="7.625" style="22" customWidth="1"/>
-    <col min="31" max="16384" width="12.625" style="22"/>
+    <col min="5" max="5" width="7.59765625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="7.59765625" style="22" customWidth="1"/>
+    <col min="18" max="18" width="8.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7.59765625" style="22" customWidth="1"/>
+    <col min="22" max="22" width="8.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="7.59765625" style="22" customWidth="1"/>
+    <col min="31" max="16384" width="12.59765625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>84</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>0.16006000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>85</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>0.71641999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>87</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>0.77598</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>88</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>0.1137</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>89</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0.49979000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>91</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>0.59072999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>93</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>0.80811999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>94</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>95</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>8.7190000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>96</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>0.53178000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>98</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>0.61936000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0.10442</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>100</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0.19513</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>101</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>0.21983</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>102</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>0.96333000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>103</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0.86092000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>104</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0.88593</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>105</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>106</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0.94960999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>107</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>0.60528999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>108</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.95901999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>109</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>2.162E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>0.62121999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>111</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0.63409000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>112</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>0.73062000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>113</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>0.40819</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>114</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>115</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>1.349E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>116</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>7.9799999999999992E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>117</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>0.93752000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>118</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.62766999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>119</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>120</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>121</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>0.20044999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>122</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>124</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>5.7610000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>125</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>49</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>50</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>0.64947999999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>0.45989999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>18</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>0.41486000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>51</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>0.27393000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>52</v>
       </c>
@@ -10099,972 +10099,972 @@
         <v>0.40545999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D47 F4:F47 H4:H47 R4:R47 T4:T47 V4:V47 X4:X47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
@@ -11084,9 +11084,9 @@
       <selection activeCell="E2" sqref="E2:E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" t="s">
         <v>14</v>
@@ -11101,7 +11101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>84</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>0.16006000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>85</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>0.71641999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>87</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>0.77598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>88</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0.1137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>89</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>0.49979000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>91</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>0.59072999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>93</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>0.80811999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>94</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>95</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>96</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.53178000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>98</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>0.61936000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>99</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>0.10442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>100</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>0.19513</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>101</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>0.21983</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>0.96333000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>103</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>0.86092000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>104</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>0.88593</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>105</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>106</v>
       </c>
@@ -11427,7 +11427,7 @@
         <v>0.94960999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>107</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0.60528999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>108</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>0.95901999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>109</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>110</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>0.62121999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>111</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>0.63409000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>112</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0.73062000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>113</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>0.40819</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>114</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>115</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>116</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>117</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>0.93752000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>118</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>0.62766999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>119</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>120</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>121</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>0.20044999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>122</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>124</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>58</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>49</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>50</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>47</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>0.64947999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>48</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0.45989999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>18</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>0.41486000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>51</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>0.27393000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>52</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0.40545999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>128</v>
       </c>
